--- a/hamilton/result/hamilton.xlsx
+++ b/hamilton/result/hamilton.xlsx
@@ -8,48 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smallcat/Documents/GitHub/graph/hamilton/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4290AF-663E-FA4D-A207-E5D53445B26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27AF3DC-AB26-4543-B771-0ADF28E9B5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="28060" windowHeight="17500" tabRatio="887" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1600" windowWidth="28060" windowHeight="17500" tabRatio="887" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="27" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="28" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$33</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$34</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$J$11:$O$11</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$J$12:$O$12</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$J$13:$O$13</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$J$14:$O$14</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$I$12</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$I$13</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$I$14</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$J$11:$O$11</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$J$12:$O$12</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$J$13:$O$13</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$35</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$J$14:$O$14</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$A$1:$O$12</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$I$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$32:$D$32</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$I$14</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$J$11:$O$12</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$J$13:$O$13</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$J$14:$O$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$33:$D$33</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$34:$D$34</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$35:$D$35</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$I$12</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$I$13</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$I$14</definedName>
-    <definedName name="_xlchart.v2.21" hidden="1">Sheet1!$I$12</definedName>
-    <definedName name="_xlchart.v2.22" hidden="1">Sheet1!$I$13</definedName>
-    <definedName name="_xlchart.v2.23" hidden="1">Sheet1!$I$14</definedName>
-    <definedName name="_xlchart.v2.24" hidden="1">Sheet1!$J$11:$O$11</definedName>
-    <definedName name="_xlchart.v2.25" hidden="1">Sheet1!$J$12:$O$12</definedName>
-    <definedName name="_xlchart.v2.26" hidden="1">Sheet1!$J$13:$O$13</definedName>
-    <definedName name="_xlchart.v2.27" hidden="1">Sheet1!$J$14:$O$14</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$B$1:$H$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$B$2:$H$2</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$B$3:$H$3</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$B$4:$H$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$A$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$A$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$A$4</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet2!$A$2</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet2!$A$3</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet2!$A$4</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet2!$B$1:$H$1</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet2!$B$2:$H$2</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet2!$B$3:$H$3</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet2!$B$4:$H$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="26">
   <si>
     <t>random</t>
   </si>
@@ -113,6 +94,36 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Mesh</t>
+  </si>
+  <si>
+    <t>Torus</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -1413,6 +1424,520 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mesh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>FT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MG</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0874999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29320000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-884F-B347-B5EB-248D248F14F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Torus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>FT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MG</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.9600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2793000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.75E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27129999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-884F-B347-B5EB-248D248F14F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>FT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MG</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67789999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-884F-B347-B5EB-248D248F14F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="579276016"/>
+        <c:axId val="579270448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="579276016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579270448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579270448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579276016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1493,6 +2018,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1997,6 +2562,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2568,6 +3636,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F33835-9BFC-D101-B563-E3028EBD104E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3345,7 +4454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFB0C99-6B42-8647-BF93-940139F63B9B}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -4055,4 +5164,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B541CD-D552-2048-96C9-45585FF79905}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0.02</v>
+      </c>
+      <c r="C2">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.0874999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.38169999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.61890000000000001</v>
+      </c>
+      <c r="G2">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.29320000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.2793000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.27410000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.46289999999999998</v>
+      </c>
+      <c r="G3">
+        <v>2.75E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.27129999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.9446</v>
+      </c>
+      <c r="E4">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.67789999999999995</v>
+      </c>
+      <c r="G4">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.1855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>